--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,27 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
@@ -73,28 +73,25 @@
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
@@ -103,103 +100,100 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
 </sst>
 </file>
@@ -557,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,16 +641,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -726,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.84</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,49 +820,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="C7">
+        <v>187</v>
+      </c>
+      <c r="D7">
+        <v>187</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>105</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>0.875</v>
+      </c>
+      <c r="L7">
+        <v>98</v>
+      </c>
+      <c r="M7">
+        <v>98</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>14</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7">
-        <v>0.925</v>
-      </c>
-      <c r="L7">
-        <v>37</v>
-      </c>
-      <c r="M7">
-        <v>37</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7337662337662337</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>6</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,49 +1020,49 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4166666666666667</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L11">
+        <v>48</v>
+      </c>
+      <c r="M11">
+        <v>48</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>10</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>46</v>
-      </c>
-      <c r="M11">
-        <v>46</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3571428571428572</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3175965665236051</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>159</v>
+        <v>416</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2592592592592592</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,585 +1188,513 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L14">
+        <v>95</v>
+      </c>
+      <c r="M14">
+        <v>95</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K14">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L14">
+      <c r="K17">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="L17">
+        <v>104</v>
+      </c>
+      <c r="M17">
+        <v>104</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L18">
+        <v>37</v>
+      </c>
+      <c r="M18">
+        <v>37</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L19">
+        <v>75</v>
+      </c>
+      <c r="M19">
+        <v>75</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7</v>
+      </c>
+      <c r="L20">
+        <v>112</v>
+      </c>
+      <c r="M20">
+        <v>112</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L23">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.648936170212766</v>
+      </c>
+      <c r="L24">
+        <v>61</v>
+      </c>
+      <c r="M24">
+        <v>61</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L26">
+        <v>16</v>
+      </c>
+      <c r="M26">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>22</v>
       </c>
-      <c r="M14">
-        <v>22</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C15">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>68</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15">
-        <v>0.72</v>
-      </c>
-      <c r="L15">
-        <v>18</v>
-      </c>
-      <c r="M15">
-        <v>18</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.15</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>68</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L16">
-        <v>28</v>
-      </c>
-      <c r="M16">
-        <v>28</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>102</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.7123287671232876</v>
-      </c>
-      <c r="L17">
-        <v>52</v>
-      </c>
-      <c r="M17">
-        <v>52</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.7068965517241379</v>
-      </c>
-      <c r="L18">
-        <v>41</v>
-      </c>
-      <c r="M18">
-        <v>41</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.5143603133159269</v>
+      </c>
+      <c r="L29">
+        <v>197</v>
+      </c>
+      <c r="M29">
+        <v>197</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L19">
+      <c r="M30">
         <v>17</v>
       </c>
-      <c r="M19">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>17</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L20">
-        <v>11</v>
-      </c>
-      <c r="M20">
-        <v>11</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L31">
         <v>42</v>
       </c>
-      <c r="K21">
-        <v>0.64</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>0.625</v>
-      </c>
-      <c r="L24">
+      <c r="M31">
+        <v>42</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L32">
+        <v>13</v>
+      </c>
+      <c r="M32">
+        <v>13</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>15</v>
-      </c>
-      <c r="M24">
-        <v>15</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L25">
-        <v>8</v>
-      </c>
-      <c r="M25">
-        <v>8</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L26">
-        <v>8</v>
-      </c>
-      <c r="M26">
-        <v>8</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L28">
-        <v>17</v>
-      </c>
-      <c r="M28">
-        <v>17</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L29">
-        <v>9</v>
-      </c>
-      <c r="M29">
-        <v>9</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="L30">
-        <v>76</v>
-      </c>
-      <c r="M30">
-        <v>76</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="L31">
-        <v>18</v>
-      </c>
-      <c r="M31">
-        <v>18</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32">
-        <v>0.5023474178403756</v>
-      </c>
-      <c r="L32">
-        <v>107</v>
-      </c>
-      <c r="M32">
-        <v>107</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>106</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.45</v>
+        <v>0.4294117647058823</v>
       </c>
       <c r="L33">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="M33">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1784,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4456521739130435</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1810,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>51</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4341085271317829</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L35">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1836,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4210526315789473</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1862,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.3571428571428572</v>
+        <v>0.328125</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1888,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.35</v>
+        <v>0.325</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1914,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.28</v>
+        <v>0.301255230125523</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1940,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.2631578947368421</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1966,7 +1888,33 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>28</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,15 +55,15 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -79,6 +79,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
@@ -88,112 +91,121 @@
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -551,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +574,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +656,13 @@
         <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +706,13 @@
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +756,13 @@
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +806,13 @@
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6404109589041096</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C7">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D7">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5862068965517241</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
@@ -920,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5833333333333334</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3684210526315789</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8203125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1937984496124031</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8181818181818182</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1534391534391534</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,7 +1232,7 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L15">
         <v>14</v>
@@ -1238,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,13 +1258,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7368421052631579</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1272,13 +1284,13 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7323943661971831</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L17">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="M17">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1290,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1298,13 +1310,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7254901960784313</v>
+        <v>0.70625</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1316,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1324,13 +1336,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7075471698113207</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1342,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1350,13 +1362,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.6830985915492958</v>
       </c>
       <c r="L20">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="M20">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1368,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1376,13 +1388,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1394,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1402,13 +1414,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6808510638297872</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1420,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1428,13 +1440,13 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1446,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1454,13 +1466,13 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.648936170212766</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1472,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1480,13 +1492,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.6349206349206349</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1498,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1506,13 +1518,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5925925925925926</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1524,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1532,13 +1544,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5600000000000001</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1550,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1558,13 +1570,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5208333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1576,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1584,13 +1596,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5143603133159269</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L29">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M29">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1602,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1613,10 +1625,10 @@
         <v>0.5</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1628,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1636,13 +1648,13 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4719101123595505</v>
+        <v>0.4382352941176471</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1654,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>47</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1662,13 +1674,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4642857142857143</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1680,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1688,13 +1700,13 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4294117647058823</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L33">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1706,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1714,13 +1726,13 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4101694915254237</v>
+        <v>0.4</v>
       </c>
       <c r="L34">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M34">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1732,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1740,7 +1752,7 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.3717948717948718</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L35">
         <v>29</v>
@@ -1758,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1766,13 +1778,13 @@
         <v>54</v>
       </c>
       <c r="K36">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1784,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1792,13 +1804,13 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.328125</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1810,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1844,13 +1856,13 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.301255230125523</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L39">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1862,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1870,13 +1882,13 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.2923076923076923</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1888,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1896,25 +1908,129 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.2602739726027397</v>
+        <v>0.203125</v>
       </c>
       <c r="L41">
+        <v>13</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42">
+        <v>0.2</v>
+      </c>
+      <c r="L42">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43">
+        <v>0.02237136465324385</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44">
+        <v>0.007006071929005138</v>
+      </c>
+      <c r="L44">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>0.88</v>
+      </c>
+      <c r="O44">
+        <v>0.12</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45">
+        <v>0.005475040257648953</v>
+      </c>
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45">
         <v>19</v>
       </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>54</v>
+      <c r="N45">
+        <v>0.89</v>
+      </c>
+      <c r="O45">
+        <v>0.11</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3088</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,24 @@
     <t>killed</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -76,49 +70,70 @@
     <t>sc</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
@@ -130,37 +145,31 @@
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
@@ -169,31 +178,28 @@
     <t>care</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
   <si>
     <t>share</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +580,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +662,13 @@
         <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -832,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6095890410958904</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C7">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,37 +888,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5600000000000001</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>14</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -932,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5517241379310345</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5277777777777778</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3421052631578947</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>423</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1866666666666667</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1724806201550388</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>427</v>
+        <v>136</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.164021164021164</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.8046875</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1238,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7368421052631579</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1264,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1276,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1284,13 +1290,13 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7169811320754716</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L17">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1302,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1310,13 +1316,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.70625</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1328,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1336,13 +1342,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1354,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1362,13 +1368,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6830985915492958</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L20">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1380,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1388,13 +1394,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1406,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1414,13 +1420,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6296296296296297</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1440,13 +1446,13 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1458,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1466,13 +1472,13 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1484,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1492,13 +1498,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5957446808510638</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1510,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1518,13 +1524,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5957446808510638</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1536,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1544,13 +1550,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5833333333333334</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1562,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1570,13 +1576,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1588,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1596,13 +1602,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5378590078328982</v>
+        <v>0.58</v>
       </c>
       <c r="L29">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1614,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>177</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1622,13 +1628,13 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1640,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1648,13 +1654,13 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4382352941176471</v>
+        <v>0.5065274151436031</v>
       </c>
       <c r="L31">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="M31">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1666,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1674,13 +1680,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4382022471910113</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1692,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1700,13 +1706,13 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4117647058823529</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1718,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1726,13 +1732,13 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="L34">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M34">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1744,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1752,13 +1758,13 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.3972602739726027</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1770,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1778,13 +1784,13 @@
         <v>54</v>
       </c>
       <c r="K36">
-        <v>0.3777777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1796,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1804,13 +1810,13 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.3598326359832636</v>
+        <v>0.4</v>
       </c>
       <c r="L37">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1822,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>153</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1830,13 +1836,13 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.325</v>
+        <v>0.3966101694915254</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1848,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1856,13 +1862,13 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.2923076923076923</v>
+        <v>0.375</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1874,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1882,13 +1888,13 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.2051282051282051</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1900,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1908,13 +1914,13 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.203125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1926,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1934,13 +1940,13 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.2</v>
+        <v>0.3125</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1952,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1960,13 +1966,13 @@
         <v>61</v>
       </c>
       <c r="K43">
-        <v>0.02237136465324385</v>
+        <v>0.3096234309623431</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1978,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>874</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1986,25 +1992,25 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.007006071929005138</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L44">
         <v>15</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N44">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2126</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2012,25 +2018,77 @@
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.005475040257648953</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46">
+        <v>0.007473143390938813</v>
+      </c>
+      <c r="L46">
+        <v>16</v>
+      </c>
+      <c r="M46">
+        <v>18</v>
+      </c>
+      <c r="N46">
         <v>0.89</v>
       </c>
-      <c r="O45">
+      <c r="O46">
         <v>0.11</v>
       </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3088</v>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47">
+        <v>0.004184100418410041</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>13</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>3094</v>
       </c>
     </row>
   </sheetData>
